--- a/Finanzas/Quinela.xlsx
+++ b/Finanzas/Quinela.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_Lab25\Finanzas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="44">
   <si>
     <t>A</t>
   </si>
@@ -161,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -334,7 +329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -511,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,7 +517,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +533,11 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>SUM(E5:E99)</f>
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <f>(SUM(E5:E99))/COUNT(E5:E99)</f>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -636,6 +635,12 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -647,6 +652,12 @@
       <c r="C10" t="s">
         <v>0</v>
       </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -658,6 +669,12 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -669,6 +686,12 @@
       <c r="C12" t="s">
         <v>0</v>
       </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -680,6 +703,12 @@
       <c r="C13" t="s">
         <v>0</v>
       </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -691,6 +720,12 @@
       <c r="C14" t="s">
         <v>0</v>
       </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -700,6 +735,12 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
         <v>0</v>
       </c>
     </row>

--- a/Finanzas/Quinela.xlsx
+++ b/Finanzas/Quinela.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_Lab25\Finanzas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="44">
   <si>
     <t>A</t>
   </si>
@@ -156,7 +161,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -329,7 +334,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -506,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -517,7 +522,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,11 +538,11 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>SUM(E5:E99)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <f>(SUM(E5:E99))/COUNT(E5:E99)</f>
-        <v>0.45454545454545453</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -754,8 +759,14 @@
       <c r="C16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -765,8 +776,14 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -776,8 +793,14 @@
       <c r="C18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -788,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -799,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -821,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -832,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -843,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -854,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -865,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -876,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -887,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -898,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -909,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -920,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>

--- a/Finanzas/Quinela.xlsx
+++ b/Finanzas/Quinela.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="44">
   <si>
     <t>A</t>
   </si>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,11 +538,11 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>SUM(E5:E99)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <f>(SUM(E5:E99))/COUNT(E5:E99)</f>
-        <v>0.5</v>
+        <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -810,6 +810,12 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -821,6 +827,12 @@
       <c r="C20" t="s">
         <v>0</v>
       </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -831,6 +843,12 @@
       </c>
       <c r="C21" t="s">
         <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">

--- a/Finanzas/Quinela.xlsx
+++ b/Finanzas/Quinela.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="44">
   <si>
     <t>A</t>
   </si>
@@ -155,7 +155,7 @@
     <t>A (+5)</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Partidos</t>
   </si>
 </sst>
 </file>
@@ -521,28 +521,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>SUM(E5:E99)</f>
-        <v>9</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <f>COUNT(E5:E99)</f>
+        <v>25</v>
+      </c>
+      <c r="C2">
         <f>(SUM(E5:E99))/COUNT(E5:E99)</f>
-        <v>0.52941176470588236</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,6 +869,12 @@
       <c r="C22" t="s">
         <v>0</v>
       </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -872,6 +886,12 @@
       <c r="C23" t="s">
         <v>0</v>
       </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -883,6 +903,12 @@
       <c r="C24" t="s">
         <v>1</v>
       </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -894,6 +920,12 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -905,6 +937,12 @@
       <c r="C26" t="s">
         <v>1</v>
       </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -916,6 +954,12 @@
       <c r="C27" t="s">
         <v>0</v>
       </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -927,6 +971,12 @@
       <c r="C28" t="s">
         <v>0</v>
       </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -937,6 +987,12 @@
       </c>
       <c r="C29" t="s">
         <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">

--- a/Finanzas/Quinela.xlsx
+++ b/Finanzas/Quinela.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="44">
   <si>
     <t>A</t>
   </si>
@@ -522,7 +522,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,15 +542,15 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>SUM(E5:E99)</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3">
         <f>COUNT(E5:E99)</f>
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <f>(SUM(E5:E99))/COUNT(E5:E99)</f>
-        <v>0.56000000000000005</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1005,6 +1005,12 @@
       <c r="C30" t="s">
         <v>1</v>
       </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1016,6 +1022,12 @@
       <c r="C31" t="s">
         <v>0</v>
       </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1027,8 +1039,14 @@
       <c r="C32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
@@ -1038,8 +1056,14 @@
       <c r="C33" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1049,8 +1073,14 @@
       <c r="C34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -1060,8 +1090,14 @@
       <c r="C35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1071,8 +1107,14 @@
       <c r="C36" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -1082,8 +1124,14 @@
       <c r="C37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1093,8 +1141,14 @@
       <c r="C38" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -1104,8 +1158,14 @@
       <c r="C39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -1115,8 +1175,14 @@
       <c r="C40" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -1126,8 +1192,14 @@
       <c r="C41" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -1137,8 +1209,14 @@
       <c r="C42" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -1148,8 +1226,14 @@
       <c r="C43" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -1159,8 +1243,14 @@
       <c r="C44" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
@@ -1170,8 +1260,14 @@
       <c r="C45" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
@@ -1181,8 +1277,14 @@
       <c r="C46" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
@@ -1192,8 +1294,14 @@
       <c r="C47" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
@@ -1203,8 +1311,14 @@
       <c r="C48" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
@@ -1214,8 +1328,14 @@
       <c r="C49" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
@@ -1225,8 +1345,14 @@
       <c r="C50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>36</v>
       </c>
@@ -1236,8 +1362,14 @@
       <c r="C51" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>30</v>
       </c>
@@ -1246,6 +1378,12 @@
       </c>
       <c r="C52" t="s">
         <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
